--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Tnf</t>
+  </si>
+  <si>
+    <t>Tnfrsf1a</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Tnf</t>
-  </si>
-  <si>
-    <t>Tnfrsf1a</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>325.4631136666667</v>
+        <v>2.913576333333333</v>
       </c>
       <c r="H2">
-        <v>976.3893410000001</v>
+        <v>8.740729</v>
       </c>
       <c r="I2">
-        <v>0.9982484331579082</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="J2">
-        <v>0.9982484331579083</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.19677366666667</v>
+        <v>14.65767833333333</v>
       </c>
       <c r="N2">
-        <v>213.590321</v>
+        <v>43.973035</v>
       </c>
       <c r="O2">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="P2">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
       <c r="Q2">
-        <v>23171.92364057428</v>
+        <v>42.70626469361278</v>
       </c>
       <c r="R2">
-        <v>208547.3127651685</v>
+        <v>384.356382242515</v>
       </c>
       <c r="S2">
-        <v>0.5956919753532698</v>
+        <v>0.2028769133889539</v>
       </c>
       <c r="T2">
-        <v>0.59569197535327</v>
+        <v>0.2028769133889539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>325.4631136666667</v>
+        <v>2.913576333333333</v>
       </c>
       <c r="H3">
-        <v>976.3893410000001</v>
+        <v>8.740729</v>
       </c>
       <c r="I3">
-        <v>0.9982484331579082</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="J3">
-        <v>0.9982484331579083</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.69537100000001</v>
+        <v>31.695371</v>
       </c>
       <c r="N3">
-        <v>95.08611300000001</v>
+        <v>95.086113</v>
       </c>
       <c r="O3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="P3">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="Q3">
-        <v>10315.67413448017</v>
+        <v>92.34688282181966</v>
       </c>
       <c r="R3">
-        <v>92841.06721032155</v>
+        <v>831.121945396377</v>
       </c>
       <c r="S3">
-        <v>0.2651900807885121</v>
+        <v>0.4386956031484586</v>
       </c>
       <c r="T3">
-        <v>0.2651900807885121</v>
+        <v>0.4386956031484586</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,14 +643,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>325.4631136666667</v>
+        <v>2.913576333333333</v>
       </c>
       <c r="H4">
-        <v>976.3893410000001</v>
+        <v>8.740729</v>
       </c>
       <c r="I4">
-        <v>0.9982484331579082</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="J4">
-        <v>0.9982484331579083</v>
+        <v>0.8649322955011439</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.417953</v>
+        <v>16.13754733333333</v>
       </c>
       <c r="N4">
-        <v>49.25385900000001</v>
+        <v>48.41264200000001</v>
       </c>
       <c r="O4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="P4">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="Q4">
-        <v>5343.438103412992</v>
+        <v>47.01797598844644</v>
       </c>
       <c r="R4">
-        <v>48090.94293071693</v>
+        <v>423.1617838960181</v>
       </c>
       <c r="S4">
-        <v>0.1373663770161263</v>
+        <v>0.2233597789637315</v>
       </c>
       <c r="T4">
-        <v>0.1373663770161263</v>
+        <v>0.2233597789637315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +726,10 @@
         <v>1.364951</v>
       </c>
       <c r="I5">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="J5">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.19677366666667</v>
+        <v>14.65767833333333</v>
       </c>
       <c r="N5">
-        <v>213.590321</v>
+        <v>43.973035</v>
       </c>
       <c r="O5">
-        <v>0.5967372004470155</v>
+        <v>0.2345581433878666</v>
       </c>
       <c r="P5">
-        <v>0.5967372004470156</v>
+        <v>0.2345581433878665</v>
       </c>
       <c r="Q5">
-        <v>32.39336913769678</v>
+        <v>6.669004232920557</v>
       </c>
       <c r="R5">
-        <v>291.540322239271</v>
+        <v>60.021038096285</v>
       </c>
       <c r="S5">
-        <v>0.0008327521853297464</v>
+        <v>0.03168122999891267</v>
       </c>
       <c r="T5">
-        <v>0.0008327521853297467</v>
+        <v>0.03168122999891268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>1.364951</v>
       </c>
       <c r="I6">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="J6">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.69537100000001</v>
+        <v>31.695371</v>
       </c>
       <c r="N6">
-        <v>95.08611300000001</v>
+        <v>95.086113</v>
       </c>
       <c r="O6">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="P6">
-        <v>0.2656553939680093</v>
+        <v>0.5072022462686253</v>
       </c>
       <c r="Q6">
-        <v>14.42087611394034</v>
+        <v>14.42087611394033</v>
       </c>
       <c r="R6">
         <v>129.787885025463</v>
       </c>
       <c r="S6">
-        <v>0.0003707245160948151</v>
+        <v>0.06850664312016672</v>
       </c>
       <c r="T6">
-        <v>0.0003707245160948151</v>
+        <v>0.06850664312016673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,10 +850,10 @@
         <v>1.364951</v>
       </c>
       <c r="I7">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="J7">
-        <v>0.001395509086254271</v>
+        <v>0.1350677044988561</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.417953</v>
+        <v>16.13754733333333</v>
       </c>
       <c r="N7">
-        <v>49.25385900000001</v>
+        <v>48.41264200000001</v>
       </c>
       <c r="O7">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="P7">
-        <v>0.1376074055849752</v>
+        <v>0.2582396103435082</v>
       </c>
       <c r="Q7">
-        <v>7.469900455101</v>
+        <v>7.342320456726889</v>
       </c>
       <c r="R7">
-        <v>67.22910409590901</v>
+        <v>66.080884110542</v>
       </c>
       <c r="S7">
-        <v>0.0001920323848297096</v>
+        <v>0.03487983137977671</v>
       </c>
       <c r="T7">
-        <v>0.0001920323848297097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.116087</v>
-      </c>
-      <c r="H8">
-        <v>0.348261</v>
-      </c>
-      <c r="I8">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="J8">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>71.19677366666667</v>
-      </c>
-      <c r="N8">
-        <v>213.590321</v>
-      </c>
-      <c r="O8">
-        <v>0.5967372004470155</v>
-      </c>
-      <c r="P8">
-        <v>0.5967372004470156</v>
-      </c>
-      <c r="Q8">
-        <v>8.265019864642333</v>
-      </c>
-      <c r="R8">
-        <v>74.38517878178101</v>
-      </c>
-      <c r="S8">
-        <v>0.00021247290841585</v>
-      </c>
-      <c r="T8">
-        <v>0.00021247290841585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.116087</v>
-      </c>
-      <c r="H9">
-        <v>0.348261</v>
-      </c>
-      <c r="I9">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="J9">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>31.69537100000001</v>
-      </c>
-      <c r="N9">
-        <v>95.08611300000001</v>
-      </c>
-      <c r="O9">
-        <v>0.2656553939680093</v>
-      </c>
-      <c r="P9">
-        <v>0.2656553939680093</v>
-      </c>
-      <c r="Q9">
-        <v>3.679420533277</v>
-      </c>
-      <c r="R9">
-        <v>33.114784799493</v>
-      </c>
-      <c r="S9">
-        <v>9.458866340234659E-05</v>
-      </c>
-      <c r="T9">
-        <v>9.45886634023466E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.116087</v>
-      </c>
-      <c r="H10">
-        <v>0.348261</v>
-      </c>
-      <c r="I10">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="J10">
-        <v>0.0003560577558373881</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.417953</v>
-      </c>
-      <c r="N10">
-        <v>49.25385900000001</v>
-      </c>
-      <c r="O10">
-        <v>0.1376074055849752</v>
-      </c>
-      <c r="P10">
-        <v>0.1376074055849752</v>
-      </c>
-      <c r="Q10">
-        <v>1.905910909911</v>
-      </c>
-      <c r="R10">
-        <v>17.153198189199</v>
-      </c>
-      <c r="S10">
-        <v>4.899618401919152E-05</v>
-      </c>
-      <c r="T10">
-        <v>4.899618401919154E-05</v>
+        <v>0.03487983137977672</v>
       </c>
     </row>
   </sheetData>
